--- a/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
+++ b/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F89C91-8B89-4A5B-A290-2888C0E64F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32AB6CA-B90F-403E-BE2A-DD8E75C640A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="451">
   <si>
     <t>type</t>
   </si>
@@ -348,9 +348,6 @@
     <t>selected(${ampliar_produccion}, 'no')</t>
   </si>
   <si>
-    <t>fin_sobre_act</t>
-  </si>
-  <si>
     <t>parametros_pecuarios</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
     <t>selected(${ampliar_produccion2}, 'no')</t>
   </si>
   <si>
-    <t>fin_sobre_act2</t>
-  </si>
-  <si>
     <t>explotacion_porcina</t>
   </si>
   <si>
@@ -663,9 +657,6 @@
     <t>selected(${ampliar_produccion3}, 'no')</t>
   </si>
   <si>
-    <t>fin_sobre_act3</t>
-  </si>
-  <si>
     <t>explotacion_avicola</t>
   </si>
   <si>
@@ -726,33 +717,18 @@
     <t>49. ¿Destino final del producto?</t>
   </si>
   <si>
-    <t>sobre_la_actividad</t>
-  </si>
-  <si>
     <t>continuar_actividad4</t>
   </si>
   <si>
     <t>¿Continuar con la actividad?</t>
   </si>
   <si>
-    <t>razon_continuar4</t>
-  </si>
-  <si>
-    <t>${continuar_actividad4} = 'no'</t>
-  </si>
-  <si>
     <t>ampliar_produccion4</t>
   </si>
   <si>
     <t>¿Ampliar la producción?</t>
   </si>
   <si>
-    <t>razon_ampliar4</t>
-  </si>
-  <si>
-    <t>${ampliar_produccion4} = 'no'</t>
-  </si>
-  <si>
     <t>informacion_comercial</t>
   </si>
   <si>
@@ -1266,30 +1242,6 @@
     <t>Temporal</t>
   </si>
   <si>
-    <t>inferior_900k</t>
-  </si>
-  <si>
-    <t>Inferiores a $900.000</t>
-  </si>
-  <si>
-    <t>901k_1800k</t>
-  </si>
-  <si>
-    <t>$901.000 - $1.800.000</t>
-  </si>
-  <si>
-    <t>1801k_2700k</t>
-  </si>
-  <si>
-    <t>$1.801.000 - $2.700.000</t>
-  </si>
-  <si>
-    <t>superior_2701k</t>
-  </si>
-  <si>
-    <t>Superiores a $2.701.000</t>
-  </si>
-  <si>
     <t>femenino</t>
   </si>
   <si>
@@ -1300,13 +1252,136 @@
   </si>
   <si>
     <t>Masculino</t>
+  </si>
+  <si>
+    <t>Encuesta 2 Agropecuario</t>
+  </si>
+  <si>
+    <t>agrop</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1TBqYQ3i4itD2OVswoAWjrOQd2Pu6TzVYqh1GgyjZmpU/edit?usp=drive_link</t>
+  </si>
+  <si>
+    <t>inferior_smlv</t>
+  </si>
+  <si>
+    <t>Inferiores al SMLV</t>
+  </si>
+  <si>
+    <t>igual_smlv</t>
+  </si>
+  <si>
+    <t>Igual al SMLV</t>
+  </si>
+  <si>
+    <t>entre_1y2_smlv</t>
+  </si>
+  <si>
+    <t>Entre 1 y 2 SMLV</t>
+  </si>
+  <si>
+    <t>superior_2</t>
+  </si>
+  <si>
+    <t>Superior a 2 SMLV</t>
+  </si>
+  <si>
+    <t>explota_avicola</t>
+  </si>
+  <si>
+    <t>¿Tiene actividades de explotación avícola?</t>
+  </si>
+  <si>
+    <t>${explota_avicola}='yes'</t>
+  </si>
+  <si>
+    <t>explota_porcina</t>
+  </si>
+  <si>
+    <t>¿Tiene actividades de explotación porcina?</t>
+  </si>
+  <si>
+    <t>${explota_porcina}='yes'</t>
+  </si>
+  <si>
+    <t>explota_carne</t>
+  </si>
+  <si>
+    <t>¿Tiene actividades para la producción de carne?</t>
+  </si>
+  <si>
+    <t>${explota_carne}='yes'</t>
+  </si>
+  <si>
+    <t>explota_pecuarios</t>
+  </si>
+  <si>
+    <t>¿Tiene actividades de explotación pecuaria?</t>
+  </si>
+  <si>
+    <t>${explota_pecuarios}='yes'</t>
+  </si>
+  <si>
+    <t>begin_agricola</t>
+  </si>
+  <si>
+    <t>Actividad agrícola</t>
+  </si>
+  <si>
+    <t>explota_agricola</t>
+  </si>
+  <si>
+    <t>¿Tiene actividades de explotación agrícola?</t>
+  </si>
+  <si>
+    <t>${explota_agricola}='yes'</t>
+  </si>
+  <si>
+    <t>begin_sobre_act4</t>
+  </si>
+  <si>
+    <t>porque_continuar4</t>
+  </si>
+  <si>
+    <t>porque_ampliar4</t>
+  </si>
+  <si>
+    <t>selected(${continuar_actividad4}, 'no')</t>
+  </si>
+  <si>
+    <t>selected(${ampliar_produccion4}, 'no')</t>
+  </si>
+  <si>
+    <t>continuar_actividad5</t>
+  </si>
+  <si>
+    <t>razon_continuar5</t>
+  </si>
+  <si>
+    <t>ampliar_produccion5</t>
+  </si>
+  <si>
+    <t>razon_ampliar5</t>
+  </si>
+  <si>
+    <t>sobre_la_actividad5</t>
+  </si>
+  <si>
+    <t>${continuar_actividad5} = 'no'</t>
+  </si>
+  <si>
+    <t>${ampliar_produccion5} = 'no'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_group							</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,14 +1393,40 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF538DD5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1355,11 +1456,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1662,13 +1768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P121" sqref="P121"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
@@ -1701,14 +1807,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1759,14 +1865,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1851,14 +1957,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1886,6 +1992,9 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2023,6 +2132,9 @@
       <c r="C26" t="s">
         <v>62</v>
       </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2033,6 +2145,9 @@
       </c>
       <c r="C27" t="s">
         <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>65</v>
@@ -2048,6 +2163,9 @@
       <c r="C28" t="s">
         <v>67</v>
       </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2070,55 +2188,52 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" s="5" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2129,10 +2244,13 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
       </c>
       <c r="G35" t="s">
         <v>77</v>
@@ -2140,16 +2258,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2157,10 +2275,13 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -2171,13 +2292,16 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,13 +2309,16 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2199,10 +2326,13 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
       </c>
       <c r="G40" t="s">
         <v>89</v>
@@ -2213,29 +2343,44 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -2243,33 +2388,27 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>103</v>
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,10 +2416,10 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2291,7 +2430,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
         <v>102</v>
@@ -2300,468 +2439,568 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>19</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>430</v>
+      </c>
+      <c r="C52" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B54" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C55" t="s">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
         <v>141</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C70" t="s">
         <v>143</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B71" t="s">
         <v>145</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C71" t="s">
         <v>146</v>
       </c>
-      <c r="C67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" t="s">
-        <v>114</v>
-      </c>
       <c r="D71" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" t="s">
-        <v>126</v>
-      </c>
-      <c r="D77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" t="s">
-        <v>132</v>
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>427</v>
       </c>
       <c r="C81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" t="s">
-        <v>136</v>
+        <v>428</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C83" t="s">
-        <v>138</v>
+        <v>113</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>115</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>117</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>144</v>
+        <v>119</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>121</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,48 +3008,66 @@
         <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>123</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>125</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>158</v>
+      </c>
+      <c r="C90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>159</v>
+      </c>
+      <c r="C91" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -2818,13 +3075,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -2832,30 +3089,27 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -2866,24 +3120,24 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="C97" t="s">
+        <v>141</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -2891,35 +3145,41 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>143</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>146</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -2930,38 +3190,38 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C101" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>78</v>
-      </c>
-      <c r="B102" t="s">
-        <v>189</v>
-      </c>
-      <c r="C102" t="s">
-        <v>190</v>
-      </c>
-      <c r="D102" t="s">
+    <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -2969,110 +3229,113 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C105" t="s">
-        <v>196</v>
-      </c>
-      <c r="F105" t="s">
-        <v>197</v>
+        <v>105</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>102</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" t="s">
-        <v>92</v>
-      </c>
-      <c r="C107" t="s">
-        <v>200</v>
+        <v>19</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" t="s">
-        <v>201</v>
-      </c>
-      <c r="C108" t="s">
-        <v>202</v>
-      </c>
-      <c r="F108" t="s">
-        <v>197</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>424</v>
       </c>
       <c r="C109" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" t="s">
-        <v>94</v>
-      </c>
-      <c r="C110" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>96</v>
-      </c>
-      <c r="B111" t="s">
-        <v>182</v>
+        <v>425</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -3080,13 +3343,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -3094,30 +3357,27 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
-      </c>
-      <c r="F114" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C115" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -3125,71 +3385,92 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B116" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C116" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>193</v>
+      </c>
+      <c r="C117" t="s">
+        <v>194</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B118" t="s">
-        <v>180</v>
+        <v>196</v>
+      </c>
+      <c r="C118" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
+        <v>198</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
+        <v>200</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="B121" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -3197,13 +3478,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="C122" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -3211,57 +3492,69 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
-        <v>223</v>
-      </c>
-      <c r="C123" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>78</v>
-      </c>
-      <c r="B124" t="s">
-        <v>225</v>
-      </c>
-      <c r="C124" t="s">
-        <v>226</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B125" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C125" t="s">
-        <v>228</v>
+        <v>100</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>229</v>
+        <v>439</v>
       </c>
       <c r="C126" t="s">
-        <v>230</v>
+        <v>102</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C127" t="s">
-        <v>232</v>
+        <v>105</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3269,29 +3562,26 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>94</v>
+        <v>440</v>
       </c>
       <c r="C128" t="s">
-        <v>233</v>
+        <v>102</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>96</v>
-      </c>
-      <c r="B129" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>7</v>
-      </c>
-      <c r="B130" t="s">
-        <v>234</v>
-      </c>
-      <c r="C130" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3299,168 +3589,165 @@
         <v>26</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>421</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>422</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" t="s">
-        <v>237</v>
-      </c>
-      <c r="C132" t="s">
-        <v>102</v>
-      </c>
-      <c r="F132" t="s">
-        <v>238</v>
+    <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
-      </c>
-      <c r="D133" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C134" t="s">
-        <v>102</v>
-      </c>
-      <c r="F134" t="s">
-        <v>242</v>
+        <v>217</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B135" t="s">
-        <v>234</v>
+        <v>218</v>
+      </c>
+      <c r="C135" t="s">
+        <v>219</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="C136" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="C137" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C138" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="B139" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C139" t="s">
-        <v>249</v>
-      </c>
-      <c r="D139" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C140" t="s">
-        <v>251</v>
-      </c>
-      <c r="D140" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>252</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>253</v>
+        <v>94</v>
       </c>
       <c r="C141" t="s">
-        <v>254</v>
-      </c>
-      <c r="D141" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B142" t="s">
-        <v>255</v>
-      </c>
-      <c r="C142" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>257</v>
-      </c>
-      <c r="B143" t="s">
-        <v>258</v>
-      </c>
-      <c r="C143" t="s">
-        <v>259</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>443</v>
       </c>
       <c r="C144" t="s">
-        <v>261</v>
+        <v>232</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3468,18 +3755,27 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>444</v>
       </c>
       <c r="C145" t="s">
-        <v>263</v>
+        <v>102</v>
+      </c>
+      <c r="F145" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>245</v>
+        <v>445</v>
+      </c>
+      <c r="C146" t="s">
+        <v>234</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3487,365 +3783,502 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>264</v>
+        <v>446</v>
       </c>
       <c r="C147" t="s">
-        <v>265</v>
+        <v>102</v>
+      </c>
+      <c r="F147" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>10</v>
-      </c>
-      <c r="B148" t="s">
-        <v>266</v>
-      </c>
-      <c r="C148" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>268</v>
-      </c>
-      <c r="B149" t="s">
-        <v>269</v>
-      </c>
-      <c r="C149" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" t="s">
-        <v>271</v>
-      </c>
-      <c r="C150" t="s">
-        <v>272</v>
-      </c>
-      <c r="F150" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>26</v>
-      </c>
-      <c r="B151" t="s">
-        <v>274</v>
-      </c>
-      <c r="C151" t="s">
-        <v>275</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="B152" t="s">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="C152" t="s">
-        <v>354</v>
-      </c>
-      <c r="F152" t="s">
-        <v>355</v>
+        <v>241</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C153" t="s">
-        <v>278</v>
+        <v>243</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="B154" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="C154" t="s">
-        <v>272</v>
-      </c>
-      <c r="F154" t="s">
-        <v>359</v>
+        <v>246</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="B155" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C155" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="B156" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C156" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B157" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C157" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="C158" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B159" t="s">
-        <v>360</v>
-      </c>
-      <c r="C159" t="s">
-        <v>361</v>
-      </c>
-      <c r="D159" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" t="s">
-        <v>362</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>256</v>
+      </c>
+      <c r="C160" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>258</v>
+      </c>
+      <c r="C161" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>260</v>
+      </c>
+      <c r="B162" t="s">
+        <v>261</v>
+      </c>
+      <c r="C162" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>263</v>
+      </c>
+      <c r="C163" t="s">
+        <v>264</v>
+      </c>
+      <c r="F163" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>26</v>
+      </c>
+      <c r="B164" t="s">
+        <v>266</v>
+      </c>
+      <c r="C164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" t="s">
+        <v>346</v>
+      </c>
+      <c r="F165" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>268</v>
+      </c>
+      <c r="B166" t="s">
+        <v>269</v>
+      </c>
+      <c r="C166" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>271</v>
+      </c>
+      <c r="C167" t="s">
+        <v>264</v>
+      </c>
+      <c r="F167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>349</v>
+      </c>
+      <c r="B168" t="s">
+        <v>272</v>
+      </c>
+      <c r="C168" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>274</v>
+      </c>
+      <c r="C169" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>26</v>
+      </c>
+      <c r="B170" t="s">
+        <v>276</v>
+      </c>
+      <c r="C170" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>355</v>
+      </c>
+      <c r="B173" t="s">
+        <v>356</v>
+      </c>
+      <c r="C173" t="s">
+        <v>357</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" t="s">
+        <v>359</v>
+      </c>
+      <c r="C175" t="s">
+        <v>360</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>78</v>
+      </c>
+      <c r="B176" t="s">
+        <v>361</v>
+      </c>
+      <c r="C176" t="s">
+        <v>362</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>78</v>
+      </c>
+      <c r="B177" t="s">
         <v>363</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C177" t="s">
         <v>364</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>365</v>
       </c>
-      <c r="D160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>10</v>
-      </c>
-      <c r="B161" t="s">
-        <v>33</v>
-      </c>
-      <c r="C161" t="s">
-        <v>34</v>
-      </c>
-      <c r="D161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B178" t="s">
         <v>366</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C178" t="s">
         <v>367</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>368</v>
       </c>
-      <c r="D162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B179" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" t="s">
+        <v>370</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>26</v>
+      </c>
+      <c r="B180" t="s">
+        <v>371</v>
+      </c>
+      <c r="C180" t="s">
+        <v>372</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>373</v>
+      </c>
+      <c r="C181" t="s">
+        <v>374</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>375</v>
+      </c>
+      <c r="C182" t="s">
+        <v>376</v>
+      </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>78</v>
       </c>
-      <c r="B163" t="s">
-        <v>369</v>
-      </c>
-      <c r="C163" t="s">
-        <v>370</v>
-      </c>
-      <c r="D163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B183" t="s">
+        <v>377</v>
+      </c>
+      <c r="C183" t="s">
+        <v>378</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>78</v>
       </c>
-      <c r="B164" t="s">
-        <v>371</v>
-      </c>
-      <c r="C164" t="s">
-        <v>372</v>
-      </c>
-      <c r="D164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>373</v>
-      </c>
-      <c r="B165" t="s">
-        <v>374</v>
-      </c>
-      <c r="C165" t="s">
-        <v>375</v>
-      </c>
-      <c r="D165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>376</v>
-      </c>
-      <c r="B166" t="s">
-        <v>377</v>
-      </c>
-      <c r="C166" t="s">
-        <v>378</v>
-      </c>
-      <c r="D166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>26</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="B184" t="s">
         <v>379</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C184" t="s">
         <v>380</v>
       </c>
-      <c r="D167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>10</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>78</v>
+      </c>
+      <c r="B185" t="s">
         <v>381</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C185" t="s">
         <v>382</v>
       </c>
-      <c r="D168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>10</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="D185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" t="s">
         <v>383</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C186" t="s">
         <v>384</v>
       </c>
-      <c r="D169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>78</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>385</v>
       </c>
-      <c r="C170" t="s">
+      <c r="B187" t="s">
         <v>386</v>
       </c>
-      <c r="D170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>78</v>
-      </c>
-      <c r="B171" t="s">
+      <c r="C187" t="s">
         <v>387</v>
       </c>
-      <c r="C171" t="s">
-        <v>388</v>
-      </c>
-      <c r="D171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>78</v>
-      </c>
-      <c r="B172" t="s">
-        <v>389</v>
-      </c>
-      <c r="C172" t="s">
-        <v>390</v>
-      </c>
-      <c r="D172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>10</v>
-      </c>
-      <c r="B173" t="s">
-        <v>391</v>
-      </c>
-      <c r="C173" t="s">
-        <v>392</v>
-      </c>
-      <c r="D173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>393</v>
-      </c>
-      <c r="B174" t="s">
-        <v>394</v>
-      </c>
-      <c r="C174" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3858,18 +4291,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3880,519 +4315,519 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
         <v>291</v>
-      </c>
-      <c r="B7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" t="s">
         <v>317</v>
-      </c>
-      <c r="B19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C20" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C21" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" t="s">
         <v>326</v>
-      </c>
-      <c r="B24" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C25" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C26" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B28" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C30" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C31" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C32" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B34" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C34" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B35" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B36" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C36" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B37" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C37" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C38" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C39" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C41" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C42" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>394</v>
-      </c>
-      <c r="B43" t="s">
+        <v>386</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="C43" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>394</v>
-      </c>
-      <c r="B44" t="s">
+        <v>386</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C44" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>394</v>
-      </c>
-      <c r="B45" t="s">
+        <v>386</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="C45" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>394</v>
-      </c>
-      <c r="B46" t="s">
+        <v>386</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="C46" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B47" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="C47" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C48" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4402,21 +4837,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
+++ b/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32AB6CA-B90F-403E-BE2A-DD8E75C640A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2DD5B7-6A1C-46BD-A8C4-209A6FEE48A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="451">
   <si>
     <t>type</t>
   </si>
@@ -1456,14 +1456,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1770,11 +1769,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
@@ -1992,9 +1991,6 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2214,14 +2210,14 @@
         <v>437</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2456,7 +2452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2473,7 +2469,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2481,12 +2477,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -2497,7 +2493,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2507,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
@@ -2522,7 +2518,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2536,7 +2532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -2550,7 +2546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2564,7 +2560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -2578,7 +2574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2592,7 +2588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2606,7 +2602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2620,7 +2616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2634,7 +2630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2647,9 +2643,8 @@
       <c r="D63" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2776,23 +2771,23 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="D73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -4291,11 +4286,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -4843,7 +4838,7 @@
       <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>

--- a/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
+++ b/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2DD5B7-6A1C-46BD-A8C4-209A6FEE48A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A95ADB-7A66-479E-AF79-48AA302F547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="473">
   <si>
     <t>type</t>
   </si>
@@ -1095,99 +1095,57 @@
     <t>tipo_mano_obra</t>
   </si>
   <si>
-    <t>Tipo de mano de obra</t>
-  </si>
-  <si>
     <t>select_one genero</t>
   </si>
   <si>
     <t>genero</t>
   </si>
   <si>
-    <t>Género</t>
-  </si>
-  <si>
     <t>edad</t>
   </si>
   <si>
-    <t>Edad (años)</t>
-  </si>
-  <si>
     <t>duracion_jornada</t>
   </si>
   <si>
-    <t>Duración jornada (horas)</t>
-  </si>
-  <si>
     <t>select_one escolaridad</t>
   </si>
   <si>
     <t>escolaridad</t>
   </si>
   <si>
-    <t>Escolaridad</t>
-  </si>
-  <si>
     <t>select_one contrato</t>
   </si>
   <si>
     <t>contrato</t>
   </si>
   <si>
-    <t>Contrato</t>
-  </si>
-  <si>
     <t>pago_seguridad_social</t>
   </si>
   <si>
-    <t>¿Pago de seguridad social?</t>
-  </si>
-  <si>
     <t>procedencia</t>
   </si>
   <si>
-    <t>Procedencia</t>
-  </si>
-  <si>
     <t>residencia</t>
   </si>
   <si>
-    <t>Residencia</t>
-  </si>
-  <si>
     <t>tiempo_trabajado</t>
   </si>
   <si>
-    <t>Tiempo trabajado (meses/año)</t>
-  </si>
-  <si>
     <t>nucleo_familiar</t>
   </si>
   <si>
-    <t>Número de personas núcleo familiar</t>
-  </si>
-  <si>
     <t>personas_a_cargo</t>
   </si>
   <si>
-    <t>Personas a cargo</t>
-  </si>
-  <si>
     <t>lugar_residencia_familiar</t>
   </si>
   <si>
-    <t>Lugar de residencia familiar</t>
-  </si>
-  <si>
     <t>select_one remuneracion</t>
   </si>
   <si>
     <t>remuneracion</t>
   </si>
   <si>
-    <t>Remuneración</t>
-  </si>
-  <si>
     <t>familiar</t>
   </si>
   <si>
@@ -1375,6 +1333,114 @@
   </si>
   <si>
     <t xml:space="preserve">end_group							</t>
+  </si>
+  <si>
+    <t>contrata_jornal</t>
+  </si>
+  <si>
+    <t>80. ¿Contrata personas por jornal?</t>
+  </si>
+  <si>
+    <t>detalle_jornal</t>
+  </si>
+  <si>
+    <t>Detalles del contrato por jornal</t>
+  </si>
+  <si>
+    <t>Complete este cuadro solo si respondió "Sí".</t>
+  </si>
+  <si>
+    <t>jornal_detalle</t>
+  </si>
+  <si>
+    <t>Detalle de las personas contratadas</t>
+  </si>
+  <si>
+    <t>Repita para cada tipo de obra/labor.</t>
+  </si>
+  <si>
+    <t>tipo_obra_labor</t>
+  </si>
+  <si>
+    <t>81. Tipo de obra o labor</t>
+  </si>
+  <si>
+    <t>frecuencia_contratacion</t>
+  </si>
+  <si>
+    <t>82. Frecuencia de contratación (por año)</t>
+  </si>
+  <si>
+    <t>duracion_jornales</t>
+  </si>
+  <si>
+    <t>83. Duración en jornales del contrato</t>
+  </si>
+  <si>
+    <t>valor_jornal</t>
+  </si>
+  <si>
+    <t>84. Valor del jornal</t>
+  </si>
+  <si>
+    <t>cantidad_jornaleros</t>
+  </si>
+  <si>
+    <t>85. Cantidad de jornaleros empleados por contrato</t>
+  </si>
+  <si>
+    <t>residencia_jornaleros</t>
+  </si>
+  <si>
+    <t>86. Residencia de los jornaleros</t>
+  </si>
+  <si>
+    <t>${contrata_jornal} = 'yes'</t>
+  </si>
+  <si>
+    <t>65. Tipo de mano de obra</t>
+  </si>
+  <si>
+    <t>66. Cargo</t>
+  </si>
+  <si>
+    <t>67. Género</t>
+  </si>
+  <si>
+    <t>68. Edad (años)</t>
+  </si>
+  <si>
+    <t>69. Duración jornada (horas)</t>
+  </si>
+  <si>
+    <t>70. Escolaridad</t>
+  </si>
+  <si>
+    <t>71. Contrato</t>
+  </si>
+  <si>
+    <t>72. ¿Pago de seguridad social?</t>
+  </si>
+  <si>
+    <t>73. Procedencia</t>
+  </si>
+  <si>
+    <t>74. Residencia</t>
+  </si>
+  <si>
+    <t>75. Tiempo trabajado (meses/año)</t>
+  </si>
+  <si>
+    <t>76. Número de personas núcleo familiar</t>
+  </si>
+  <si>
+    <t>77. Personas a cargo</t>
+  </si>
+  <si>
+    <t>78. Lugar de residencia familiar</t>
+  </si>
+  <si>
+    <t>79. Remuneración</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1425,6 +1491,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF538DD5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1456,7 +1534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1465,6 +1543,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1767,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,10 +2277,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C31" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2201,13 +2291,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2487,10 +2577,10 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C52" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2594,7 @@
         <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2770,7 +2860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
@@ -2786,8 +2876,8 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -2805,7 +2895,6 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2905,10 +2994,10 @@
         <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C81" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -2925,7 +3014,7 @@
         <v>150</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3280,7 +3369,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3288,10 +3377,10 @@
         <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C109" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -3308,7 +3397,7 @@
         <v>179</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3498,7 +3587,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>98</v>
@@ -3526,7 +3615,7 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C126" t="s">
         <v>102</v>
@@ -3535,7 +3624,7 @@
         <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3557,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C128" t="s">
         <v>102</v>
@@ -3566,7 +3655,7 @@
         <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,10 +3673,10 @@
         <v>26</v>
       </c>
       <c r="B131" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C131" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -3604,7 +3693,7 @@
         <v>212</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3656,6 +3745,9 @@
       <c r="C136" t="s">
         <v>221</v>
       </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -3667,6 +3759,9 @@
       <c r="C137" t="s">
         <v>223</v>
       </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -3678,6 +3773,9 @@
       <c r="C138" t="s">
         <v>225</v>
       </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -3689,6 +3787,9 @@
       <c r="C139" t="s">
         <v>227</v>
       </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -3700,6 +3801,9 @@
       <c r="C140" t="s">
         <v>229</v>
       </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -3711,6 +3815,9 @@
       <c r="C141" t="s">
         <v>230</v>
       </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -3725,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>98</v>
@@ -3736,7 +3843,7 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C144" t="s">
         <v>232</v>
@@ -3750,13 +3857,13 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C145" t="s">
         <v>102</v>
       </c>
       <c r="F145" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,7 +3871,7 @@
         <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C146" t="s">
         <v>234</v>
@@ -3778,13 +3885,13 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C147" t="s">
         <v>102</v>
       </c>
       <c r="F147" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3871,6 +3978,9 @@
       <c r="C155" t="s">
         <v>248</v>
       </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -3882,6 +3992,9 @@
       <c r="C156" t="s">
         <v>251</v>
       </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -3893,6 +4006,9 @@
       <c r="C157" t="s">
         <v>253</v>
       </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -3904,6 +4020,9 @@
       <c r="C158" t="s">
         <v>255</v>
       </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -3923,6 +4042,9 @@
       <c r="C160" t="s">
         <v>257</v>
       </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -3934,6 +4056,9 @@
       <c r="C161" t="s">
         <v>259</v>
       </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -3945,6 +4070,9 @@
       <c r="C162" t="s">
         <v>262</v>
       </c>
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -3956,6 +4084,9 @@
       <c r="C163" t="s">
         <v>264</v>
       </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
       <c r="F163" t="s">
         <v>265</v>
       </c>
@@ -3970,6 +4101,9 @@
       <c r="C164" t="s">
         <v>267</v>
       </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -3981,6 +4115,9 @@
       <c r="C165" t="s">
         <v>346</v>
       </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
       <c r="F165" t="s">
         <v>347</v>
       </c>
@@ -3995,6 +4132,9 @@
       <c r="C166" t="s">
         <v>270</v>
       </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -4006,6 +4146,9 @@
       <c r="C167" t="s">
         <v>264</v>
       </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
       <c r="F167" t="s">
         <v>351</v>
       </c>
@@ -4020,6 +4163,9 @@
       <c r="C168" t="s">
         <v>273</v>
       </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -4031,6 +4177,9 @@
       <c r="C169" t="s">
         <v>275</v>
       </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -4042,6 +4191,9 @@
       <c r="C170" t="s">
         <v>277</v>
       </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -4058,9 +4210,6 @@
       <c r="C172" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>354</v>
       </c>
@@ -4073,7 +4222,7 @@
         <v>356</v>
       </c>
       <c r="C173" t="s">
-        <v>357</v>
+        <v>458</v>
       </c>
       <c r="D173" t="s">
         <v>13</v>
@@ -4087,7 +4236,7 @@
         <v>33</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>459</v>
       </c>
       <c r="D174" t="s">
         <v>13</v>
@@ -4095,13 +4244,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>357</v>
+      </c>
+      <c r="B175" t="s">
         <v>358</v>
       </c>
-      <c r="B175" t="s">
-        <v>359</v>
-      </c>
       <c r="C175" t="s">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
@@ -4112,170 +4261,375 @@
         <v>78</v>
       </c>
       <c r="B176" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C176" t="s">
-        <v>362</v>
+        <v>461</v>
       </c>
       <c r="D176" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>78</v>
       </c>
       <c r="B177" t="s">
+        <v>360</v>
+      </c>
+      <c r="C177" t="s">
+        <v>462</v>
+      </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>361</v>
+      </c>
+      <c r="B178" t="s">
+        <v>362</v>
+      </c>
+      <c r="C178" t="s">
+        <v>463</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>363</v>
       </c>
-      <c r="C177" t="s">
+      <c r="B179" t="s">
         <v>364</v>
       </c>
-      <c r="D177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>365</v>
-      </c>
-      <c r="B178" t="s">
-        <v>366</v>
-      </c>
-      <c r="C178" t="s">
-        <v>367</v>
-      </c>
-      <c r="D178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>368</v>
-      </c>
-      <c r="B179" t="s">
-        <v>369</v>
-      </c>
       <c r="C179" t="s">
-        <v>370</v>
+        <v>464</v>
       </c>
       <c r="D179" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C180" t="s">
-        <v>372</v>
+        <v>465</v>
       </c>
       <c r="D180" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C181" t="s">
-        <v>374</v>
+        <v>466</v>
       </c>
       <c r="D181" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C182" t="s">
-        <v>376</v>
+        <v>467</v>
       </c>
       <c r="D182" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>78</v>
       </c>
       <c r="B183" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C183" t="s">
-        <v>378</v>
+        <v>468</v>
       </c>
       <c r="D183" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>78</v>
       </c>
       <c r="B184" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C184" t="s">
-        <v>380</v>
+        <v>469</v>
       </c>
       <c r="D184" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>78</v>
       </c>
       <c r="B185" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C185" t="s">
-        <v>382</v>
+        <v>470</v>
       </c>
       <c r="D185" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C186" t="s">
-        <v>384</v>
+        <v>471</v>
       </c>
       <c r="D186" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B187" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C187" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>96</v>
       </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+    </row>
+    <row r="190" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+    </row>
+    <row r="191" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4665,10 +5019,10 @@
         <v>356</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C34" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4676,153 +5030,153 @@
         <v>356</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B36" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C37" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C38" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C39" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C40" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C42" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C47" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C48" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -4858,13 +5212,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
+++ b/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A95ADB-7A66-479E-AF79-48AA302F547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B881392E-7F6C-4E1B-B3D0-559564D7BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="477">
   <si>
     <t>type</t>
   </si>
@@ -1441,6 +1441,18 @@
   </si>
   <si>
     <t>79. Remuneración</t>
+  </si>
+  <si>
+    <t>dosis</t>
+  </si>
+  <si>
+    <t>Dosis</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>today()</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1555,6 +1567,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1860,7 +1875,7 @@
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,9 +1886,10 @@
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1895,8 +1911,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1907,7 +1926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1934,8 +1953,11 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1949,12 +1971,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1965,7 +1987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1979,7 +2001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1993,7 +2015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2007,7 +2029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2027,7 +2049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2041,12 +2063,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2057,7 +2079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2071,7 +2093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -3970,7 +3992,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
         <v>247</v>
@@ -4638,10 +4660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4917,13 +4939,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="B25" t="s">
-        <v>327</v>
+        <v>473</v>
       </c>
       <c r="C25" t="s">
-        <v>328</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4931,10 +4953,10 @@
         <v>261</v>
       </c>
       <c r="B26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4942,21 +4964,21 @@
         <v>261</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="C28" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4964,10 +4986,10 @@
         <v>331</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4975,21 +4997,21 @@
         <v>331</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4997,10 +5019,10 @@
         <v>272</v>
       </c>
       <c r="B32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5008,21 +5030,21 @@
         <v>272</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C33" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5030,21 +5052,21 @@
         <v>356</v>
       </c>
       <c r="B35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5052,10 +5074,10 @@
         <v>362</v>
       </c>
       <c r="B37" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5063,10 +5085,10 @@
         <v>362</v>
       </c>
       <c r="B38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5074,10 +5096,10 @@
         <v>362</v>
       </c>
       <c r="B39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5085,21 +5107,21 @@
         <v>362</v>
       </c>
       <c r="B40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5107,21 +5129,21 @@
         <v>364</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>373</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>400</v>
+        <v>364</v>
+      </c>
+      <c r="B43" t="s">
+        <v>390</v>
+      </c>
+      <c r="C43" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5129,10 +5151,10 @@
         <v>373</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5140,10 +5162,10 @@
         <v>373</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5151,21 +5173,21 @@
         <v>373</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>358</v>
-      </c>
-      <c r="B47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C47" t="s">
-        <v>393</v>
+        <v>373</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5173,9 +5195,20 @@
         <v>358</v>
       </c>
       <c r="B48" t="s">
+        <v>392</v>
+      </c>
+      <c r="C48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>358</v>
+      </c>
+      <c r="B49" t="s">
         <v>394</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>395</v>
       </c>
     </row>

--- a/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
+++ b/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B881392E-7F6C-4E1B-B3D0-559564D7BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391C519F-CE06-42AE-BC23-C85D89149384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,9 +756,6 @@
     <t>52. Nombre del insumo</t>
   </si>
   <si>
-    <t>select_one unidad</t>
-  </si>
-  <si>
     <t>unidad_medida</t>
   </si>
   <si>
@@ -1453,6 +1450,9 @@
   </si>
   <si>
     <t>today()</t>
+  </si>
+  <si>
+    <t>select_one unidad or_other</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1567,9 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1874,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,8 +1908,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>475</v>
+      <c r="H1" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1954,7 +1951,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2299,10 +2296,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
+        <v>420</v>
+      </c>
+      <c r="C31" t="s">
         <v>421</v>
-      </c>
-      <c r="C31" t="s">
-        <v>422</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2313,13 +2310,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2599,10 +2596,10 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
+        <v>415</v>
+      </c>
+      <c r="C52" t="s">
         <v>416</v>
-      </c>
-      <c r="C52" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2616,7 +2613,7 @@
         <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3016,10 +3013,10 @@
         <v>26</v>
       </c>
       <c r="B81" t="s">
+        <v>412</v>
+      </c>
+      <c r="C81" t="s">
         <v>413</v>
-      </c>
-      <c r="C81" t="s">
-        <v>414</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -3036,7 +3033,7 @@
         <v>150</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3391,7 +3388,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,10 +3396,10 @@
         <v>26</v>
       </c>
       <c r="B109" t="s">
+        <v>409</v>
+      </c>
+      <c r="C109" t="s">
         <v>410</v>
-      </c>
-      <c r="C109" t="s">
-        <v>411</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -3419,7 +3416,7 @@
         <v>179</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3609,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>98</v>
@@ -3637,7 +3634,7 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C126" t="s">
         <v>102</v>
@@ -3646,7 +3643,7 @@
         <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3668,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C128" t="s">
         <v>102</v>
@@ -3677,7 +3674,7 @@
         <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3695,10 +3692,10 @@
         <v>26</v>
       </c>
       <c r="B131" t="s">
+        <v>406</v>
+      </c>
+      <c r="C131" t="s">
         <v>407</v>
-      </c>
-      <c r="C131" t="s">
-        <v>408</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -3715,7 +3712,7 @@
         <v>212</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3854,7 +3851,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>98</v>
@@ -3865,7 +3862,7 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C144" t="s">
         <v>232</v>
@@ -3879,13 +3876,13 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C145" t="s">
         <v>102</v>
       </c>
       <c r="F145" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3893,7 +3890,7 @@
         <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C146" t="s">
         <v>234</v>
@@ -3907,13 +3904,13 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C147" t="s">
         <v>102</v>
       </c>
       <c r="F147" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3978,13 +3975,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>476</v>
+      </c>
+      <c r="B154" t="s">
         <v>244</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>245</v>
-      </c>
-      <c r="C154" t="s">
-        <v>246</v>
       </c>
       <c r="D154" t="s">
         <v>13</v>
@@ -3995,10 +3992,10 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
+        <v>246</v>
+      </c>
+      <c r="C155" t="s">
         <v>247</v>
-      </c>
-      <c r="C155" t="s">
-        <v>248</v>
       </c>
       <c r="D155" t="s">
         <v>13</v>
@@ -4006,13 +4003,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>248</v>
+      </c>
+      <c r="B156" t="s">
         <v>249</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>250</v>
-      </c>
-      <c r="C156" t="s">
-        <v>251</v>
       </c>
       <c r="D156" t="s">
         <v>13</v>
@@ -4023,10 +4020,10 @@
         <v>37</v>
       </c>
       <c r="B157" t="s">
+        <v>251</v>
+      </c>
+      <c r="C157" t="s">
         <v>252</v>
-      </c>
-      <c r="C157" t="s">
-        <v>253</v>
       </c>
       <c r="D157" t="s">
         <v>13</v>
@@ -4037,10 +4034,10 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
+        <v>253</v>
+      </c>
+      <c r="C158" t="s">
         <v>254</v>
-      </c>
-      <c r="C158" t="s">
-        <v>255</v>
       </c>
       <c r="D158" t="s">
         <v>13</v>
@@ -4059,10 +4056,10 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
+        <v>255</v>
+      </c>
+      <c r="C160" t="s">
         <v>256</v>
-      </c>
-      <c r="C160" t="s">
-        <v>257</v>
       </c>
       <c r="D160" t="s">
         <v>13</v>
@@ -4073,10 +4070,10 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
+        <v>257</v>
+      </c>
+      <c r="C161" t="s">
         <v>258</v>
-      </c>
-      <c r="C161" t="s">
-        <v>259</v>
       </c>
       <c r="D161" t="s">
         <v>13</v>
@@ -4084,13 +4081,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>259</v>
+      </c>
+      <c r="B162" t="s">
         <v>260</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>261</v>
-      </c>
-      <c r="C162" t="s">
-        <v>262</v>
       </c>
       <c r="D162" t="s">
         <v>13</v>
@@ -4101,16 +4098,16 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" t="s">
         <v>263</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
         <v>264</v>
-      </c>
-      <c r="D163" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4118,10 +4115,10 @@
         <v>26</v>
       </c>
       <c r="B164" t="s">
+        <v>265</v>
+      </c>
+      <c r="C164" t="s">
         <v>266</v>
-      </c>
-      <c r="C164" t="s">
-        <v>267</v>
       </c>
       <c r="D164" t="s">
         <v>13</v>
@@ -4132,27 +4129,27 @@
         <v>10</v>
       </c>
       <c r="B165" t="s">
+        <v>344</v>
+      </c>
+      <c r="C165" t="s">
         <v>345</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
         <v>346</v>
-      </c>
-      <c r="D165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>267</v>
+      </c>
+      <c r="B166" t="s">
         <v>268</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>269</v>
-      </c>
-      <c r="C166" t="s">
-        <v>270</v>
       </c>
       <c r="D166" t="s">
         <v>13</v>
@@ -4163,27 +4160,27 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C167" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D167" t="s">
         <v>13</v>
       </c>
       <c r="F167" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B168" t="s">
+        <v>271</v>
+      </c>
+      <c r="C168" t="s">
         <v>272</v>
-      </c>
-      <c r="C168" t="s">
-        <v>273</v>
       </c>
       <c r="D168" t="s">
         <v>13</v>
@@ -4194,10 +4191,10 @@
         <v>10</v>
       </c>
       <c r="B169" t="s">
+        <v>273</v>
+      </c>
+      <c r="C169" t="s">
         <v>274</v>
-      </c>
-      <c r="C169" t="s">
-        <v>275</v>
       </c>
       <c r="D169" t="s">
         <v>13</v>
@@ -4208,10 +4205,10 @@
         <v>26</v>
       </c>
       <c r="B170" t="s">
+        <v>275</v>
+      </c>
+      <c r="C170" t="s">
         <v>276</v>
-      </c>
-      <c r="C170" t="s">
-        <v>277</v>
       </c>
       <c r="D170" t="s">
         <v>13</v>
@@ -4227,24 +4224,24 @@
         <v>70</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>354</v>
+      </c>
+      <c r="B173" t="s">
         <v>355</v>
       </c>
-      <c r="B173" t="s">
-        <v>356</v>
-      </c>
       <c r="C173" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D173" t="s">
         <v>13</v>
@@ -4258,7 +4255,7 @@
         <v>33</v>
       </c>
       <c r="C174" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D174" t="s">
         <v>13</v>
@@ -4266,13 +4263,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" t="s">
         <v>357</v>
       </c>
-      <c r="B175" t="s">
-        <v>358</v>
-      </c>
       <c r="C175" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
@@ -4283,10 +4280,10 @@
         <v>78</v>
       </c>
       <c r="B176" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C176" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D176" t="s">
         <v>13</v>
@@ -4297,10 +4294,10 @@
         <v>78</v>
       </c>
       <c r="B177" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C177" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D177" t="s">
         <v>13</v>
@@ -4308,13 +4305,13 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>360</v>
+      </c>
+      <c r="B178" t="s">
         <v>361</v>
       </c>
-      <c r="B178" t="s">
-        <v>362</v>
-      </c>
       <c r="C178" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D178" t="s">
         <v>13</v>
@@ -4322,13 +4319,13 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>362</v>
+      </c>
+      <c r="B179" t="s">
         <v>363</v>
       </c>
-      <c r="B179" t="s">
-        <v>364</v>
-      </c>
       <c r="C179" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D179" t="s">
         <v>13</v>
@@ -4339,10 +4336,10 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C180" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D180" t="s">
         <v>13</v>
@@ -4353,10 +4350,10 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C181" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D181" t="s">
         <v>13</v>
@@ -4367,10 +4364,10 @@
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C182" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D182" t="s">
         <v>13</v>
@@ -4381,10 +4378,10 @@
         <v>78</v>
       </c>
       <c r="B183" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C183" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D183" t="s">
         <v>13</v>
@@ -4395,10 +4392,10 @@
         <v>78</v>
       </c>
       <c r="B184" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C184" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D184" t="s">
         <v>13</v>
@@ -4409,10 +4406,10 @@
         <v>78</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C185" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D185" t="s">
         <v>13</v>
@@ -4423,10 +4420,10 @@
         <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C186" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D186" t="s">
         <v>13</v>
@@ -4434,13 +4431,13 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187" t="s">
         <v>372</v>
       </c>
-      <c r="B187" t="s">
-        <v>373</v>
-      </c>
       <c r="C187" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D187" t="s">
         <v>13</v>
@@ -4456,10 +4453,10 @@
         <v>26</v>
       </c>
       <c r="B189" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>13</v>
@@ -4475,18 +4472,18 @@
         <v>7</v>
       </c>
       <c r="B190" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C190" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
@@ -4496,18 +4493,18 @@
         <v>70</v>
       </c>
       <c r="B191" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C191" s="9" t="s">
         <v>442</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>443</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
@@ -4517,10 +4514,10 @@
         <v>10</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>13</v>
@@ -4536,10 +4533,10 @@
         <v>78</v>
       </c>
       <c r="B193" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>13</v>
@@ -4555,10 +4552,10 @@
         <v>78</v>
       </c>
       <c r="B194" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>13</v>
@@ -4574,10 +4571,10 @@
         <v>37</v>
       </c>
       <c r="B195" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>13</v>
@@ -4593,10 +4590,10 @@
         <v>78</v>
       </c>
       <c r="B196" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>13</v>
@@ -4612,10 +4609,10 @@
         <v>10</v>
       </c>
       <c r="B197" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>13</v>
@@ -4631,7 +4628,7 @@
         <v>96</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -4646,7 +4643,7 @@
         <v>19</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -4675,7 +4672,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4686,530 +4683,530 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>279</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" t="s">
         <v>281</v>
-      </c>
-      <c r="C3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
         <v>283</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>284</v>
-      </c>
-      <c r="C4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
         <v>286</v>
-      </c>
-      <c r="C5" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" t="s">
         <v>288</v>
-      </c>
-      <c r="C6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" t="s">
         <v>290</v>
-      </c>
-      <c r="C7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" t="s">
         <v>292</v>
-      </c>
-      <c r="C8" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" t="s">
         <v>294</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>295</v>
-      </c>
-      <c r="C9" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" t="s">
         <v>297</v>
-      </c>
-      <c r="C10" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" t="s">
         <v>299</v>
-      </c>
-      <c r="C11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
         <v>301</v>
-      </c>
-      <c r="B12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" t="s">
         <v>303</v>
-      </c>
-      <c r="C13" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" t="s">
         <v>305</v>
-      </c>
-      <c r="C14" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" t="s">
         <v>307</v>
-      </c>
-      <c r="C15" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" t="s">
         <v>309</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>310</v>
-      </c>
-      <c r="C16" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" t="s">
         <v>312</v>
-      </c>
-      <c r="C17" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" t="s">
         <v>314</v>
-      </c>
-      <c r="C18" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" t="s">
         <v>316</v>
-      </c>
-      <c r="C19" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" t="s">
         <v>318</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>319</v>
-      </c>
-      <c r="C20" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" t="s">
         <v>321</v>
-      </c>
-      <c r="C21" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" t="s">
         <v>323</v>
-      </c>
-      <c r="C22" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" t="s">
         <v>343</v>
-      </c>
-      <c r="C23" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" t="s">
         <v>325</v>
-      </c>
-      <c r="C24" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C25" t="s">
         <v>473</v>
-      </c>
-      <c r="C25" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" t="s">
         <v>327</v>
-      </c>
-      <c r="C26" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" t="s">
         <v>329</v>
-      </c>
-      <c r="C27" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" t="s">
         <v>292</v>
-      </c>
-      <c r="C28" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" t="s">
         <v>331</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>332</v>
-      </c>
-      <c r="C29" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C31" t="s">
         <v>334</v>
-      </c>
-      <c r="C31" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" t="s">
         <v>336</v>
-      </c>
-      <c r="C32" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C33" t="s">
         <v>338</v>
-      </c>
-      <c r="C33" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" t="s">
         <v>374</v>
-      </c>
-      <c r="C35" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" t="s">
         <v>376</v>
-      </c>
-      <c r="C36" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s">
+        <v>377</v>
+      </c>
+      <c r="C37" t="s">
         <v>378</v>
-      </c>
-      <c r="C37" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B38" t="s">
+        <v>379</v>
+      </c>
+      <c r="C38" t="s">
         <v>380</v>
-      </c>
-      <c r="C38" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" t="s">
         <v>382</v>
-      </c>
-      <c r="C39" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" t="s">
         <v>384</v>
-      </c>
-      <c r="C40" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s">
+        <v>385</v>
+      </c>
+      <c r="C41" t="s">
         <v>386</v>
-      </c>
-      <c r="C41" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C42" t="s">
         <v>388</v>
-      </c>
-      <c r="C42" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s">
+        <v>389</v>
+      </c>
+      <c r="C43" t="s">
         <v>390</v>
-      </c>
-      <c r="C43" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C48" t="s">
         <v>392</v>
-      </c>
-      <c r="C48" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" t="s">
         <v>394</v>
-      </c>
-      <c r="C49" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5234,24 +5231,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" t="s">
         <v>396</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>397</v>
-      </c>
-      <c r="C2" t="s">
-        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
+++ b/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391C519F-CE06-42AE-BC23-C85D89149384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78CE6B5-77BF-4DC4-9BF6-ADA12A633029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="480">
   <si>
     <t>type</t>
   </si>
@@ -1453,6 +1453,15 @@
   </si>
   <si>
     <t>select_one unidad or_other</t>
+  </si>
+  <si>
+    <t>produc_leche</t>
+  </si>
+  <si>
+    <t>¿Tiene actividades de producción de leche?</t>
+  </si>
+  <si>
+    <t>${produc_leche}='yes'</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1567,6 +1576,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1869,24 +1879,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1922,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +1947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1954,7 +1964,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1968,12 +1978,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1984,7 +1994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1998,7 +2008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2012,7 +2022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2026,7 +2036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2046,7 +2056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2060,12 +2070,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2076,7 +2086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2090,7 +2100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2101,7 +2111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2115,7 +2125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2129,7 +2139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2143,7 +2153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2157,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2171,7 +2181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2199,7 +2209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2213,7 +2223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2227,7 +2237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2241,7 +2251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2258,7 +2268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2272,7 +2282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2291,7 +2301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2305,7 +2315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -2319,7 +2329,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -2330,7 +2340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2344,7 +2354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2361,7 +2371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2375,7 +2385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2392,7 +2402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2426,7 +2436,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2443,7 +2453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2460,7 +2470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2477,7 +2487,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2491,7 +2501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -2502,7 +2512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -2516,7 +2526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -2530,7 +2540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -2561,7 +2571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2578,7 +2588,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2586,12 +2596,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -2602,7 +2612,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -2616,916 +2626,916 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="F55" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
         <v>112</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>113</v>
       </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>78</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>114</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>115</v>
       </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
         <v>116</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>117</v>
       </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>78</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>118</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>119</v>
       </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
         <v>120</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>121</v>
       </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" t="s">
-        <v>123</v>
-      </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
       <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
         <v>136</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>137</v>
       </c>
-      <c r="D67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>139</v>
       </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>140</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>141</v>
       </c>
-      <c r="D69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
         <v>142</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>143</v>
       </c>
-      <c r="D70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>145</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>146</v>
       </c>
-      <c r="D71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
         <v>147</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>148</v>
       </c>
-      <c r="D72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B74" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="11"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="D74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="D75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3" t="s">
+      <c r="D76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
         <v>110</v>
       </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>26</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>412</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>413</v>
       </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
         <v>151</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>113</v>
       </c>
-      <c r="D83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>78</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>152</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>115</v>
       </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
         <v>153</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>117</v>
       </c>
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>78</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>154</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>119</v>
       </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
         <v>155</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>121</v>
       </c>
-      <c r="D87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C88" t="s">
-        <v>123</v>
-      </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>78</v>
       </c>
       <c r="B93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>78</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>78</v>
       </c>
       <c r="B95" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" t="s">
         <v>163</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>137</v>
       </c>
-      <c r="D95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
         <v>164</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>139</v>
       </c>
-      <c r="D96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>78</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>165</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>141</v>
       </c>
-      <c r="D97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
         <v>166</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>143</v>
       </c>
-      <c r="D98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>144</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>167</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>146</v>
       </c>
-      <c r="D99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
         <v>168</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>148</v>
       </c>
-      <c r="D100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
         <v>169</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>170</v>
       </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="D103" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>26</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>205</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>100</v>
       </c>
-      <c r="D103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
         <v>206</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>102</v>
       </c>
-      <c r="D104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>26</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>208</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>105</v>
       </c>
-      <c r="D105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
         <v>209</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>102</v>
       </c>
-      <c r="D106" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>19</v>
       </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>26</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>409</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>410</v>
       </c>
-      <c r="D109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>182</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>183</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>184</v>
       </c>
-      <c r="D112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
         <v>185</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>186</v>
       </c>
-      <c r="D113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" t="s">
-        <v>187</v>
-      </c>
-      <c r="C114" t="s">
-        <v>188</v>
-      </c>
       <c r="D114" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>78</v>
       </c>
       <c r="B115" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" t="s">
+        <v>188</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" t="s">
         <v>189</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>190</v>
       </c>
-      <c r="D115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>26</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>191</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>192</v>
       </c>
-      <c r="D116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>37</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>193</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>194</v>
-      </c>
-      <c r="D117" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118" t="s">
-        <v>196</v>
-      </c>
-      <c r="C118" t="s">
-        <v>197</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -3534,1009 +3544,1007 @@
         <v>195</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B119" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="C119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>37</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C120" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
       </c>
-      <c r="F120" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>37</v>
       </c>
       <c r="B121" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" t="s">
+        <v>200</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" t="s">
         <v>201</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>202</v>
       </c>
-      <c r="D121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
         <v>94</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>203</v>
       </c>
-      <c r="D122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>96</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="D125" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>26</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>231</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>100</v>
       </c>
-      <c r="D125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
         <v>424</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>102</v>
       </c>
-      <c r="D126" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>26</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>233</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>105</v>
       </c>
-      <c r="D127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
         <v>425</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>102</v>
       </c>
-      <c r="D128" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>26</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>406</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>407</v>
       </c>
-      <c r="D131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>70</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>213</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>215</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>216</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>217</v>
       </c>
-      <c r="D134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>78</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>218</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>219</v>
       </c>
-      <c r="D135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>37</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>220</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>221</v>
       </c>
-      <c r="D136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>78</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>222</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>223</v>
       </c>
-      <c r="D137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" t="s">
-        <v>224</v>
-      </c>
-      <c r="C138" t="s">
-        <v>225</v>
-      </c>
       <c r="D138" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>37</v>
       </c>
       <c r="B139" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>37</v>
       </c>
       <c r="B140" t="s">
+        <v>226</v>
+      </c>
+      <c r="C140" t="s">
+        <v>227</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>37</v>
+      </c>
+      <c r="B141" t="s">
         <v>228</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>229</v>
       </c>
-      <c r="D140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>10</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" t="s">
         <v>94</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>230</v>
       </c>
-      <c r="D141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>96</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+    <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>26</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>428</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>232</v>
       </c>
-      <c r="D144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>10</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
         <v>429</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>102</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F146" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>26</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>430</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>234</v>
       </c>
-      <c r="D146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>10</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
         <v>431</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>102</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F148" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+    <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>239</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>240</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>241</v>
       </c>
-      <c r="D152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>10</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
         <v>242</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>243</v>
       </c>
-      <c r="D153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>476</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>244</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>245</v>
       </c>
-      <c r="D154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>10</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
         <v>246</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>247</v>
       </c>
-      <c r="D155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>248</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>249</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>250</v>
       </c>
-      <c r="D156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>37</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>251</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>252</v>
       </c>
-      <c r="D157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>10</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
         <v>253</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>254</v>
       </c>
-      <c r="D158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>96</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>10</v>
-      </c>
-      <c r="B160" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
         <v>255</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>256</v>
       </c>
-      <c r="D160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>10</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
         <v>257</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>258</v>
       </c>
-      <c r="D161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>259</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>260</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>261</v>
       </c>
-      <c r="D162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>10</v>
-      </c>
-      <c r="B163" t="s">
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
         <v>262</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>263</v>
       </c>
-      <c r="D163" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>26</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>265</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>266</v>
       </c>
-      <c r="D164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>10</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
         <v>344</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>345</v>
       </c>
-      <c r="D165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>267</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>268</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>269</v>
       </c>
-      <c r="D166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>10</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
         <v>270</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>263</v>
       </c>
-      <c r="D167" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>348</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>271</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>272</v>
       </c>
-      <c r="D168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>10</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
         <v>273</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>274</v>
       </c>
-      <c r="D169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>26</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>275</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>276</v>
       </c>
-      <c r="D170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>354</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>355</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>457</v>
       </c>
-      <c r="D173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>10</v>
-      </c>
-      <c r="B174" t="s">
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" t="s">
         <v>33</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>458</v>
       </c>
-      <c r="D174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>356</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>357</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>459</v>
       </c>
-      <c r="D175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>78</v>
-      </c>
-      <c r="B176" t="s">
-        <v>358</v>
-      </c>
-      <c r="C176" t="s">
-        <v>460</v>
-      </c>
       <c r="D176" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>78</v>
       </c>
       <c r="B177" t="s">
+        <v>358</v>
+      </c>
+      <c r="C177" t="s">
+        <v>460</v>
+      </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>78</v>
+      </c>
+      <c r="B178" t="s">
         <v>359</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>461</v>
       </c>
-      <c r="D177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>360</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>361</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>462</v>
       </c>
-      <c r="D178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>362</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>363</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>463</v>
       </c>
-      <c r="D179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>26</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>364</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>464</v>
       </c>
-      <c r="D180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>10</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
         <v>365</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>465</v>
       </c>
-      <c r="D181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>10</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
         <v>366</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>466</v>
       </c>
-      <c r="D182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>78</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
         <v>367</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>467</v>
       </c>
-      <c r="D183" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>78</v>
-      </c>
-      <c r="B184" t="s">
-        <v>368</v>
-      </c>
-      <c r="C184" t="s">
-        <v>468</v>
-      </c>
       <c r="D184" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>78</v>
       </c>
       <c r="B185" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" t="s">
+        <v>468</v>
+      </c>
+      <c r="D185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>78</v>
+      </c>
+      <c r="B186" t="s">
         <v>369</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>469</v>
       </c>
-      <c r="D185" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>10</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
         <v>370</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>470</v>
       </c>
-      <c r="D186" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>371</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>372</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" t="s">
         <v>471</v>
       </c>
-      <c r="D187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B190" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C190" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D189" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
-    </row>
-    <row r="190" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="7" t="s">
+      <c r="D190" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B191" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C191" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7" t="s">
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="G190" s="7" t="s">
+      <c r="G191" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="H190" s="7"/>
-      <c r="I190" s="7"/>
-    </row>
-    <row r="191" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+    </row>
+    <row r="192" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B192" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C192" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
-      <c r="F191" s="9" t="s">
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="G191" s="9" t="s">
+      <c r="G192" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="H191" s="9"/>
-      <c r="I191" s="9"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B192" s="6" t="s">
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C193" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>13</v>
@@ -4547,15 +4555,15 @@
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>13</v>
@@ -4566,15 +4574,15 @@
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>13</v>
@@ -4585,15 +4593,15 @@
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>13</v>
@@ -4604,15 +4612,15 @@
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>13</v>
@@ -4623,32 +4631,51 @@
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
+        <v>454</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4659,18 +4686,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>277</v>
       </c>
@@ -4681,7 +4708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>278</v>
       </c>
@@ -4692,7 +4719,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -4703,7 +4730,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>282</v>
       </c>
@@ -4714,7 +4741,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -4725,7 +4752,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>282</v>
       </c>
@@ -4736,7 +4763,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>282</v>
       </c>
@@ -4747,7 +4774,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -4758,7 +4785,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -4769,7 +4796,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -4780,7 +4807,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -4791,7 +4818,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>300</v>
       </c>
@@ -4802,7 +4829,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>300</v>
       </c>
@@ -4813,7 +4840,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>300</v>
       </c>
@@ -4824,7 +4851,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>300</v>
       </c>
@@ -4835,7 +4862,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>308</v>
       </c>
@@ -4846,7 +4873,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>308</v>
       </c>
@@ -4857,7 +4884,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -4868,7 +4895,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -4879,7 +4906,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>317</v>
       </c>
@@ -4890,7 +4917,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>317</v>
       </c>
@@ -4901,7 +4928,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>317</v>
       </c>
@@ -4912,7 +4939,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>317</v>
       </c>
@@ -4923,7 +4950,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>317</v>
       </c>
@@ -4934,7 +4961,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>317</v>
       </c>
@@ -4945,7 +4972,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -4956,7 +4983,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>260</v>
       </c>
@@ -4967,7 +4994,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>260</v>
       </c>
@@ -4978,7 +5005,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>330</v>
       </c>
@@ -4989,7 +5016,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>330</v>
       </c>
@@ -5000,7 +5027,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -5011,7 +5038,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>271</v>
       </c>
@@ -5022,7 +5049,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>271</v>
       </c>
@@ -5033,7 +5060,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>271</v>
       </c>
@@ -5044,7 +5071,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>355</v>
       </c>
@@ -5055,7 +5082,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>355</v>
       </c>
@@ -5066,7 +5093,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>361</v>
       </c>
@@ -5077,7 +5104,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>361</v>
       </c>
@@ -5088,7 +5115,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>361</v>
       </c>
@@ -5099,7 +5126,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>361</v>
       </c>
@@ -5110,7 +5137,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>361</v>
       </c>
@@ -5121,7 +5148,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>363</v>
       </c>
@@ -5132,7 +5159,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>363</v>
       </c>
@@ -5143,7 +5170,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>372</v>
       </c>
@@ -5154,7 +5181,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>372</v>
       </c>
@@ -5165,7 +5192,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>372</v>
       </c>
@@ -5176,7 +5203,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>372</v>
       </c>
@@ -5187,7 +5214,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>357</v>
       </c>
@@ -5198,7 +5225,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>357</v>
       </c>
@@ -5222,14 +5249,14 @@
       <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>339</v>
       </c>
@@ -5240,7 +5267,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>395</v>
       </c>

--- a/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
+++ b/xlsForms/Encuesta 2 AGROPECUARIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78CE6B5-77BF-4DC4-9BF6-ADA12A633029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11102C3-354A-4261-AF17-02E308E53911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="487">
   <si>
     <t>type</t>
   </si>
@@ -1462,6 +1462,27 @@
   </si>
   <si>
     <t>${produc_leche}='yes'</t>
+  </si>
+  <si>
+    <t>foto_act</t>
+  </si>
+  <si>
+    <t>Fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>Inserte una fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>img_act</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1551,11 +1572,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1577,6 +1609,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1879,24 +1914,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:I203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1921,8 +1957,11 @@
       <c r="H1" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1933,7 +1972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1947,7 +1986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1964,7 +2003,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1978,12 +2017,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +2033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2022,7 +2061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2036,7 +2075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2056,7 +2095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2070,12 +2109,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2086,7 +2125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2100,7 +2139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2111,7 +2150,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2125,7 +2164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2139,7 +2178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2153,7 +2192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2167,7 +2206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2181,7 +2220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2195,7 +2234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2209,7 +2248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2223,7 +2262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2237,7 +2276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2251,7 +2290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2268,7 +2307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2282,7 +2321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2293,7 +2332,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2301,7 +2340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2315,7 +2354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -2329,7 +2368,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -2340,7 +2379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2354,7 +2393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2371,7 +2410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2385,7 +2424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2402,7 +2441,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2419,7 +2458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2436,7 +2475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2453,7 +2492,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2470,7 +2509,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2487,7 +2526,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2501,7 +2540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -2512,7 +2551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -2526,7 +2565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -2540,7 +2579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +2596,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -2571,7 +2610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2588,7 +2627,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2596,12 +2635,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -2612,7 +2651,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2665,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>26</v>
       </c>
@@ -2640,7 +2679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2654,7 +2693,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2668,7 +2707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -2682,7 +2721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2696,7 +2735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -2710,7 +2749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2724,7 +2763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2738,7 +2777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2752,7 +2791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2766,7 +2805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2780,7 +2819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2794,7 +2833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -2808,7 +2847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -2822,7 +2861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -2836,7 +2875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2850,7 +2889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2864,7 +2903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2878,7 +2917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>144</v>
       </c>
@@ -2892,7 +2931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2906,7 +2945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
@@ -2925,7 +2964,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="11"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>26</v>
       </c>
@@ -2943,7 +2982,7 @@
       <c r="G75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>10</v>
       </c>
@@ -2964,7 +3003,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>26</v>
       </c>
@@ -2983,7 +3022,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
@@ -3004,7 +3043,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>19</v>
       </c>
@@ -3019,7 +3058,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -3030,12 +3069,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3049,7 +3088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -3063,7 +3102,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3077,7 +3116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -3091,7 +3130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3105,7 +3144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -3119,7 +3158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3133,7 +3172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -3147,7 +3186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -3161,7 +3200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -3175,7 +3214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -3189,7 +3228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -3203,7 +3242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -3217,7 +3256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>78</v>
       </c>
@@ -3231,7 +3270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -3245,7 +3284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3259,7 +3298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -3273,7 +3312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3287,7 +3326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>144</v>
       </c>
@@ -3301,7 +3340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3315,7 +3354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3329,7 +3368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
@@ -3343,7 +3382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -3357,7 +3396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -3374,7 +3413,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -3388,7 +3427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -3405,7 +3444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -3413,12 +3452,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -3432,7 +3471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -3446,7 +3485,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>70</v>
       </c>
@@ -3457,7 +3496,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>182</v>
       </c>
@@ -3471,7 +3510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -3485,7 +3524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>78</v>
       </c>
@@ -3499,7 +3538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>78</v>
       </c>
@@ -3513,7 +3552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -3527,7 +3566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>37</v>
       </c>
@@ -3544,7 +3583,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>78</v>
       </c>
@@ -3561,7 +3600,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -3575,7 +3614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>37</v>
       </c>
@@ -3592,7 +3631,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>37</v>
       </c>
@@ -3606,7 +3645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -3620,7 +3659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>96</v>
       </c>
@@ -3628,7 +3667,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
@@ -3642,7 +3681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3656,7 +3695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -3673,7 +3712,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -3687,7 +3726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -3704,17 +3743,17 @@
         <v>427</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -3728,7 +3767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
@@ -3742,7 +3781,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>70</v>
       </c>
@@ -3753,7 +3792,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -3767,7 +3806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>78</v>
       </c>
@@ -3781,7 +3820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -3795,7 +3834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>78</v>
       </c>
@@ -3809,7 +3848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -3823,7 +3862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -3837,7 +3876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -3851,7 +3890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -3865,7 +3904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>96</v>
       </c>
@@ -3873,7 +3912,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>7</v>
       </c>
@@ -3884,7 +3923,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -3898,7 +3937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -3912,7 +3951,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -3926,7 +3965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -3940,17 +3979,17 @@
         <v>434</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>7</v>
       </c>
@@ -3961,7 +4000,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>70</v>
       </c>
@@ -3972,7 +4011,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>239</v>
       </c>
@@ -3986,7 +4025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -4000,7 +4039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>476</v>
       </c>
@@ -4014,7 +4053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -4028,7 +4067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>248</v>
       </c>
@@ -4042,7 +4081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -4056,7 +4095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -4070,7 +4109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>96</v>
       </c>
@@ -4078,7 +4117,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -4092,7 +4131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -4106,7 +4145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>259</v>
       </c>
@@ -4120,7 +4159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -4137,7 +4176,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -4151,7 +4190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -4168,7 +4207,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>267</v>
       </c>
@@ -4182,7 +4221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -4199,7 +4238,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>348</v>
       </c>
@@ -4213,7 +4252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -4227,7 +4266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -4241,12 +4280,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>70</v>
       </c>
@@ -4260,7 +4299,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>354</v>
       </c>
@@ -4274,7 +4313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -4288,7 +4327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>356</v>
       </c>
@@ -4302,7 +4341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>78</v>
       </c>
@@ -4316,7 +4355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>78</v>
       </c>
@@ -4330,7 +4369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>360</v>
       </c>
@@ -4344,7 +4383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>362</v>
       </c>
@@ -4358,7 +4397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -4372,7 +4411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -4386,7 +4425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -4400,7 +4439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -4414,7 +4453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>78</v>
       </c>
@@ -4428,7 +4467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>78</v>
       </c>
@@ -4442,7 +4481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -4456,7 +4495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>371</v>
       </c>
@@ -4470,12 +4509,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>26</v>
       </c>
@@ -4494,7 +4533,7 @@
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>7</v>
       </c>
@@ -4515,7 +4554,7 @@
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
     </row>
-    <row r="192" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>70</v>
       </c>
@@ -4536,7 +4575,7 @@
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>10</v>
       </c>
@@ -4555,7 +4594,7 @@
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>78</v>
       </c>
@@ -4574,7 +4613,7 @@
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>78</v>
       </c>
@@ -4593,7 +4632,7 @@
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>37</v>
       </c>
@@ -4612,7 +4651,7 @@
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>78</v>
       </c>
@@ -4631,7 +4670,7 @@
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>10</v>
       </c>
@@ -4650,7 +4689,7 @@
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>96</v>
       </c>
@@ -4665,7 +4704,7 @@
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>19</v>
       </c>
@@ -4676,6 +4715,39 @@
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I202" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4690,14 +4762,14 @@
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>277</v>
       </c>
@@ -4708,7 +4780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>278</v>
       </c>
@@ -4719,7 +4791,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -4730,7 +4802,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>282</v>
       </c>
@@ -4741,7 +4813,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -4752,7 +4824,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>282</v>
       </c>
@@ -4763,7 +4835,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>282</v>
       </c>
@@ -4774,7 +4846,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -4785,7 +4857,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -4796,7 +4868,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -4807,7 +4879,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -4818,7 +4890,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>300</v>
       </c>
@@ -4829,7 +4901,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>300</v>
       </c>
@@ -4840,7 +4912,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>300</v>
       </c>
@@ -4851,7 +4923,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>300</v>
       </c>
@@ -4862,7 +4934,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>308</v>
       </c>
@@ -4873,7 +4945,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>308</v>
       </c>
@@ -4884,7 +4956,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -4895,7 +4967,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -4906,7 +4978,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>317</v>
       </c>
@@ -4917,7 +4989,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>317</v>
       </c>
@@ -4928,7 +5000,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>317</v>
       </c>
@@ -4939,7 +5011,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>317</v>
       </c>
@@ -4950,7 +5022,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>317</v>
       </c>
@@ -4961,7 +5033,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>317</v>
       </c>
@@ -4972,7 +5044,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -4983,7 +5055,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>260</v>
       </c>
@@ -4994,7 +5066,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>260</v>
       </c>
@@ -5005,7 +5077,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>330</v>
       </c>
@@ -5016,7 +5088,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>330</v>
       </c>
@@ -5027,7 +5099,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -5038,7 +5110,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>271</v>
       </c>
@@ -5049,7 +5121,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>271</v>
       </c>
@@ -5060,7 +5132,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>271</v>
       </c>
@@ -5071,7 +5143,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>355</v>
       </c>
@@ -5082,7 +5154,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>355</v>
       </c>
@@ -5093,7 +5165,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>361</v>
       </c>
@@ -5104,7 +5176,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>361</v>
       </c>
@@ -5115,7 +5187,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>361</v>
       </c>
@@ -5126,7 +5198,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>361</v>
       </c>
@@ -5137,7 +5209,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>361</v>
       </c>
@@ -5148,7 +5220,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>363</v>
       </c>
@@ -5159,7 +5231,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>363</v>
       </c>
@@ -5170,7 +5242,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>372</v>
       </c>
@@ -5181,7 +5253,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>372</v>
       </c>
@@ -5192,7 +5264,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>372</v>
       </c>
@@ -5203,7 +5275,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>372</v>
       </c>
@@ -5214,7 +5286,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>357</v>
       </c>
@@ -5225,7 +5297,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>357</v>
       </c>
@@ -5249,14 +5321,14 @@
       <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>339</v>
       </c>
@@ -5267,7 +5339,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
